--- a/src/main/resources/sql/한국관광공사_한국관광 100선 관광정보_20160906.xlsx
+++ b/src/main/resources/sql/한국관광공사_한국관광 100선 관광정보_20160906.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20415" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="19380" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="한국관광공사_한국관광 100선 관광정보_20160906" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -52,9 +53,6 @@
     <t>용산구</t>
   </si>
   <si>
-    <t>서울타워는 한국 최초의 타워형태의 관광명소다. 높이 236.7m를 헤아리는 타워는 해발 243m인 남산의 높이까지 계산하면 실제 높이는 480m에 이르러 가히 동양최고의 타워라고 자랑할 만하다. 1969년 12월 착공, 1975년 7월 완공됐고, 1980년 10월 15일 전망대가 일반인에게 공개되면서 서울의 명소로 면모를 드러냈다. 그동안 서울타워는 30년 간 관광객의 사랑을 받아 오다가 2005년 12월 9일 낙후된 시설을 리모델링해 산뜻하고 화려한 모습으로 탈바꿈했다. 또한, 장애인차량 전용도로가 있어 전망대까지 진입하기가 수월하다. N 서울타워는 남산의 새롭다(new)의 뜻을 지닌 알파벳 N을 합성한 이름으로 계절, 이벤트 내용에 따라 서울타워 외관의 색상과 패턴이 변화하는 조명시스템을 구축하였으며 매일 밤 7시부터 12시까지 '서울의 꽃'이라는 주제로 6개의 서치라이트가 다양한 각도로 하늘에 발사되어 꽃이 활짝 핀 모양을 연출한다. 원기둥 형태의 5층으로 된 타워룸은 2~3층 전망대와 5층에 자리잡은 회전전망 레스토랑이 압권을 이룬다. 회전전망레스토랑은 이름 그대로 회전식 레스토랑으로서 각각 160석을 갖추고 있다. 사방이 열려있는 원형식당은 48분 주기로 360도 회전해, 창가에 앉아 담소를 나누며 앉은 자리에서 자연스럽게 서울의 사방을 조망할 수 있다. 북악과 북한산은 물론 개성의 송악산이 눈에 들어오고, 한강과 남한산성, 관악산이 강남의 아파트촌 너머로 파노라마처럼 이어진다. 햇살이 기우는 저녁시간 서해로 기우는 저녁노을이 서강과 한강하구까지 물들여질 때를 가장 절경으로 꼽는다.</t>
-  </si>
-  <si>
     <t>서울특별시 용산구 남산공원길 105 (용산동2가)</t>
   </si>
   <si>
@@ -217,9 +215,6 @@
     <t>보성군</t>
   </si>
   <si>
-    <t>전남 보성에 있는 대한다업 (주)보성다원을 관광농원으로 개방한 곳으로 1957년에 시작해 반세기를 내다보는 내력있는 차 관광농원이다. 대한다업에서는 1959년 해발 350m 보성 오선봉 주변에 대단위의 녹차밭을 조성하고 있으며, 현재 연간 녹차 120톤 이상을 생산하고 있다. 대한다업(주)는 봉산리에 있는 보성다원 제 1다원과 회천리에 있는 제 2다원이 있으며, 제1다원은 국내 유일 차 관광농원으로 지정운영되고 있다. 연간 다녀가는 관광객수도 100만명이 넘고 있으며, 각종 CF촬영과, 영화촬영지로도 유명하며, 영화 "선물"의 촬영 장소였던 울창한 삼나무숲 오솔길로 걸어오르는 차밭은 991,740m²(30여만 평) 규모의 대단위 차농원으로 장관을 이뤄놓고 있다. 2003년 7월에는 KBS드라마 '여름향기'가 촬영되기도 하였다.</t>
-  </si>
-  <si>
     <t>전라남도 보성군 보성읍 녹차로 763-43 (보성읍)</t>
   </si>
   <si>
@@ -262,9 +257,6 @@
     <t>임실군</t>
   </si>
   <si>
-    <t>전북 임실 치즈마을은 한국 치즈의 원조 임실치즈의 뿌리를 가진 마을이다. '사람이 꽃보다 아름다운 치즈마을'이란 테마로 더불어 사는 사회를 꿈꾸며 바른 먹을거리와 아이들의 미래를 먼저 생각하는 사람들이 모여 만든 마들로서 마을 사람들이 직접 진행하는 치즈낙농체험과 흥겨운 농촌체험을 통해 도시와 농촌이 하나되는 도농교류 경험을 할 수 있다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">전라북도 임실군 임실읍 치즈마을1길 4 </t>
   </si>
   <si>
@@ -332,9 +324,6 @@
   </si>
   <si>
     <t>산청군</t>
-  </si>
-  <si>
-    <t>지리산은 금강산, 한라산과 더불어 삼신산의 하나로 알려져 왔으며, 신라 5악중 남악으로 '어리석은 사람이 머물면 지혜로운 사람으로 달라진다 해서 지리산'이라 불리워 왔다. 지리산은 백두산의 맥이 반도를 타고 내려와 이 곳까지 이어졌다는 뜻에서 두류산이라고 불리워지기도 하고, 불가에서 깨달음을 얻은 높은 스님의 처소를 가리키는 '방장'의 그 깊은 의미를 빌어 방장산이라고도 하였다. 지리산국립공원은 1967년 12월 29일 우리나라 최초의 국립공원으로 지정된 곳으로 경상남도 하동군, 산청군, 함양군, 전라남도 구례군, 전라북도 남원시 등 3개 도, 5개 시.군, 15개 읍.면에 걸쳐 있는 곳으로 그 면적이 440.517㎢에 이르고 있으며, 이를 환산하면 무려 1억 3천평이 넘는 면적이 된다. 이는 계룡산국립공원의 7배이고 여의도 면적의 52배 정도로 20개 국립공원 가운데서 육지면적만으로는 가장 넓다.</t>
   </si>
   <si>
     <t xml:space="preserve"> 경남 산청군 시천면 , 삼장면</t>
@@ -405,6 +394,18 @@
   <si>
     <t>sights_longitude</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울타워는 한국 최초의 타워형태의 관광명소다. 높이 236.7m를 헤아리는 타워는 해발 243m인 남산의 높이까지 계산하면 실제 높이는 480m에 이르러 가히 동양최고의 타워라고 자랑할 만하다. 1969년 12월 착공, 1975년 7월 완공됐고, 1980년 10월 15일 전망대가 일반인에게 공개되면서 서울의 명소로 면모를 드러냈다. 그동안 서울타워는 30년 간 관광객의 사랑을 받아 오다가 2005년 12월 9일 낙후된 시설을 리모델링해 산뜻하고 화려한 모습으로 탈바꿈했다. 또한, 장애인차량 전용도로가 있어 전망대까지 진입하기가 수월하다. N 서울타워는 남산의 새롭다(new)의 뜻을 지닌 알파벳 N을 합성한 이름으로 계절, 이벤트 내용에 따라 서울타워 외관의 색상과 패턴이 변화하는 조명시스템을 구축하였으며 매일 밤 7시부터 12시까지 서울의 꽃이라는 주제로 6개의 서치라이트가 다양한 각도로 하늘에 발사되어 꽃이 활짝 핀 모양을 연출한다. 원기둥 형태의 5층으로 된 타워룸은 2~3층 전망대와 5층에 자리잡은 회전전망 레스토랑이 압권을 이룬다. 회전전망레스토랑은 이름 그대로 회전식 레스토랑으로서 각각 160석을 갖추고 있다. 사방이 열려있는 원형식당은 48분 주기로 360도 회전해, 창가에 앉아 담소를 나누며 앉은 자리에서 자연스럽게 서울의 사방을 조망할 수 있다. 북악과 북한산은 물론 개성의 송악산이 눈에 들어오고, 한강과 남한산성, 관악산이 강남의 아파트촌 너머로 파노라마처럼 이어진다. 햇살이 기우는 저녁시간 서해로 기우는 저녁노을이 서강과 한강하구까지 물들여질 때를 가장 절경으로 꼽는다.</t>
+  </si>
+  <si>
+    <t>전남 보성에 있는 대한다업 (주)보성다원을 관광농원으로 개방한 곳으로 1957년에 시작해 반세기를 내다보는 내력있는 차 관광농원이다. 대한다업에서는 1959년 해발 350m 보성 오선봉 주변에 대단위의 녹차밭을 조성하고 있으며, 현재 연간 녹차 120톤 이상을 생산하고 있다. 대한다업(주)는 봉산리에 있는 보성다원 제 1다원과 회천리에 있는 제 2다원이 있으며, 제1다원은 국내 유일 차 관광농원으로 지정운영되고 있다. 연간 다녀가는 관광객수도 100만명이 넘고 있으며, 각종 CF촬영과, 영화촬영지로도 유명하며, 영화 "선물"의 촬영 장소였던 울창한 삼나무숲 오솔길로 걸어오르는 차밭은 991,740m²(30여만 평) 규모의 대단위 차농원으로 장관을 이뤄놓고 있다. 2003년 7월에는 KBS드라마 여름향기가 촬영되기도 하였다.</t>
+  </si>
+  <si>
+    <t>전북 임실 치즈마을은 한국 치즈의 원조 임실치즈의 뿌리를 가진 마을이다. 사람이 꽃보다 아름다운 치즈마을이란 테마로 더불어 사는 사회를 꿈꾸며 바른 먹을거리와 아이들의 미래를 먼저 생각하는 사람들이 모여 만든 마들로서 마을 사람들이 직접 진행하는 치즈낙농체험과 흥겨운 농촌체험을 통해 도시와 농촌이 하나되는 도농교류 경험을 할 수 있다.</t>
+  </si>
+  <si>
+    <t>지리산은 금강산, 한라산과 더불어 삼신산의 하나로 알려져 왔으며, 신라 5악중 남악으로 어리석은 사람이 머물면 지혜로운 사람으로 달라진다 해서 지리산이라 불리워 왔다. 지리산은 백두산의 맥이 반도를 타고 내려와 이 곳까지 이어졌다는 뜻에서 두류산이라고 불리워지기도 하고, 불가에서 깨달음을 얻은 높은 스님의 처소를 가리키는 방장의 그 깊은 의미를 빌어 방장산이라고도 하였다. 지리산국립공원은 1967년 12월 29일 우리나라 최초의 국립공원으로 지정된 곳으로 경상남도 하동군, 산청군, 함양군, 전라남도 구례군, 전라북도 남원시 등 3개 도, 5개 시.군, 15개 읍.면에 걸쳐 있는 곳으로 그 면적이 440.517㎢에 이르고 있으며, 이를 환산하면 무려 1억 3천평이 넘는 면적이 된다. 이는 계룡산국립공원의 7배이고 여의도 면적의 52배 정도로 20개 국립공원 가운데서 육지면적만으로는 가장 넓다.</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1344,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D4" sqref="D2:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1356,28 +1357,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>120</v>
-      </c>
-      <c r="E1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1385,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1411,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1437,19 +1438,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
       </c>
       <c r="G4">
         <v>37.551173599999998</v>
@@ -1460,22 +1461,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
       </c>
       <c r="G5">
         <v>37.257450200000001</v>
@@ -1486,22 +1487,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
       </c>
       <c r="G6">
         <v>38.119549800000001</v>
@@ -1512,22 +1513,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
       </c>
       <c r="G7">
         <v>37.687136199999998</v>
@@ -1538,22 +1539,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
       </c>
       <c r="G8">
         <v>37.095738699999998</v>
@@ -1564,22 +1565,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
       </c>
       <c r="G9">
         <v>36.542378800000002</v>
@@ -1590,22 +1591,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
       </c>
       <c r="G10">
         <v>36.027633399999999</v>
@@ -1616,22 +1617,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
       </c>
       <c r="G11">
         <v>36.462094</v>
@@ -1642,22 +1643,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
       </c>
       <c r="G12">
         <v>36.7125761</v>
@@ -1668,22 +1669,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" t="s">
         <v>57</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
       </c>
       <c r="G13">
         <v>34.927596399999999</v>
@@ -1694,22 +1695,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" t="s">
         <v>62</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
       </c>
       <c r="G14">
         <v>35.324364899999999</v>
@@ -1720,22 +1721,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" t="s">
         <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>69</v>
       </c>
       <c r="G15">
         <v>34.7153791</v>
@@ -1746,22 +1747,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" t="s">
         <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
       </c>
       <c r="G16">
         <v>34.744682599999997</v>
@@ -1772,22 +1773,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" t="s">
         <v>77</v>
-      </c>
-      <c r="E17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
       </c>
       <c r="G17">
         <v>35.813847600000003</v>
@@ -1798,22 +1799,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>81</v>
-      </c>
-      <c r="D18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" t="s">
-        <v>84</v>
       </c>
       <c r="G18">
         <v>35.636250400000002</v>
@@ -1824,22 +1825,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
         <v>86</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" t="s">
-        <v>89</v>
       </c>
       <c r="G19">
         <v>35.790101399999998</v>
@@ -1850,22 +1851,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
         <v>91</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" t="s">
-        <v>94</v>
       </c>
       <c r="G20">
         <v>36.538954099999998</v>
@@ -1876,22 +1877,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>96</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" t="s">
-        <v>99</v>
       </c>
       <c r="G21">
         <v>35.097394799999996</v>
@@ -1902,22 +1903,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
         <v>100</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" t="s">
-        <v>103</v>
       </c>
       <c r="G22">
         <v>35.158714199999999</v>
@@ -1928,22 +1929,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" t="s">
         <v>104</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" t="s">
-        <v>108</v>
       </c>
       <c r="G23">
         <v>35.336961100000003</v>
